--- a/Data_Processing/numbdata.xlsx
+++ b/Data_Processing/numbdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="18">
   <si>
     <t>加工时间</t>
   </si>
@@ -425,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P169"/>
+  <dimension ref="A1:P168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7630,16 +7630,16 @@
     </row>
     <row r="145" spans="1:16">
       <c r="A145" s="1">
-        <v>30304</v>
+        <v>30305</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C145">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>210836</v>
+        <v>210837</v>
       </c>
       <c r="E145">
         <v>4.99</v>
@@ -7648,48 +7648,48 @@
         <v>5.01</v>
       </c>
       <c r="G145">
-        <v>39.45</v>
+        <v>39.42</v>
       </c>
       <c r="H145">
-        <v>2.51</v>
+        <v>2.53</v>
       </c>
       <c r="I145">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="J145">
-        <v>2.46</v>
+        <v>2.47</v>
       </c>
       <c r="K145">
-        <v>2.47</v>
+        <v>2.46</v>
       </c>
       <c r="L145">
-        <v>69.84999999999999</v>
+        <v>69.84</v>
       </c>
       <c r="M145">
-        <v>69.84</v>
+        <v>69.87</v>
       </c>
       <c r="N145">
-        <v>352</v>
+        <v>351.98</v>
       </c>
       <c r="O145">
-        <v>0.274</v>
+        <v>0.424</v>
       </c>
       <c r="P145">
-        <v>0.167</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="146" spans="1:16">
       <c r="A146" s="1">
-        <v>30305</v>
+        <v>30517</v>
       </c>
       <c r="B146" t="s">
         <v>17</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>210837</v>
+        <v>210838</v>
       </c>
       <c r="E146">
         <v>4.99</v>
@@ -7698,166 +7698,166 @@
         <v>5.01</v>
       </c>
       <c r="G146">
-        <v>39.42</v>
+        <v>39.44</v>
       </c>
       <c r="H146">
+        <v>2.52</v>
+      </c>
+      <c r="I146">
         <v>2.53</v>
-      </c>
-      <c r="I146">
-        <v>2.51</v>
       </c>
       <c r="J146">
         <v>2.47</v>
       </c>
       <c r="K146">
-        <v>2.46</v>
+        <v>2.45</v>
       </c>
       <c r="L146">
-        <v>69.84</v>
+        <v>69.88</v>
       </c>
       <c r="M146">
-        <v>69.87</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="N146">
-        <v>351.98</v>
+        <v>351.99</v>
       </c>
       <c r="O146">
-        <v>0.424</v>
+        <v>0.222</v>
       </c>
       <c r="P146">
-        <v>0.366</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="147" spans="1:16">
       <c r="A147" s="1">
-        <v>30517</v>
+        <v>30728</v>
       </c>
       <c r="B147" t="s">
         <v>17</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D147">
-        <v>210838</v>
+        <v>210839</v>
       </c>
       <c r="E147">
-        <v>4.99</v>
+        <v>5.01</v>
       </c>
       <c r="F147">
         <v>5.01</v>
       </c>
       <c r="G147">
-        <v>39.44</v>
+        <v>39.45</v>
       </c>
       <c r="H147">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="I147">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="J147">
-        <v>2.47</v>
+        <v>2.48</v>
       </c>
       <c r="K147">
-        <v>2.45</v>
+        <v>2.46</v>
       </c>
       <c r="L147">
         <v>69.88</v>
       </c>
       <c r="M147">
-        <v>69.84999999999999</v>
+        <v>69.84</v>
       </c>
       <c r="N147">
-        <v>351.99</v>
+        <v>352.06</v>
       </c>
       <c r="O147">
-        <v>0.222</v>
+        <v>0.377</v>
       </c>
       <c r="P147">
-        <v>0.205</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="148" spans="1:16">
       <c r="A148" s="1">
-        <v>30728</v>
+        <v>30940</v>
       </c>
       <c r="B148" t="s">
         <v>17</v>
       </c>
       <c r="C148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D148">
-        <v>210839</v>
+        <v>210840</v>
       </c>
       <c r="E148">
         <v>5.01</v>
       </c>
       <c r="F148">
-        <v>5.01</v>
+        <v>4.99</v>
       </c>
       <c r="G148">
-        <v>39.45</v>
+        <v>39.43</v>
       </c>
       <c r="H148">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="I148">
         <v>2.52</v>
       </c>
       <c r="J148">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="K148">
-        <v>2.46</v>
+        <v>2.47</v>
       </c>
       <c r="L148">
-        <v>69.88</v>
+        <v>69.86</v>
       </c>
       <c r="M148">
         <v>69.84</v>
       </c>
       <c r="N148">
-        <v>352.06</v>
+        <v>352</v>
       </c>
       <c r="O148">
-        <v>0.377</v>
+        <v>0.662</v>
       </c>
       <c r="P148">
-        <v>0.241</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="149" spans="1:16">
       <c r="A149" s="1">
-        <v>30940</v>
+        <v>31151</v>
       </c>
       <c r="B149" t="s">
         <v>17</v>
       </c>
       <c r="C149">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D149">
-        <v>210840</v>
+        <v>210861</v>
       </c>
       <c r="E149">
-        <v>5.01</v>
+        <v>4.98</v>
       </c>
       <c r="F149">
-        <v>4.99</v>
+        <v>5</v>
       </c>
       <c r="G149">
         <v>39.43</v>
       </c>
       <c r="H149">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="I149">
         <v>2.52</v>
       </c>
       <c r="J149">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="K149">
         <v>2.47</v>
@@ -7869,45 +7869,45 @@
         <v>69.84</v>
       </c>
       <c r="N149">
-        <v>352</v>
+        <v>352.06</v>
       </c>
       <c r="O149">
-        <v>0.662</v>
+        <v>0.272</v>
       </c>
       <c r="P149">
-        <v>0.511</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="150" spans="1:16">
       <c r="A150" s="1">
-        <v>31151</v>
+        <v>31363</v>
       </c>
       <c r="B150" t="s">
         <v>17</v>
       </c>
       <c r="C150">
+        <v>6</v>
+      </c>
+      <c r="D150">
+        <v>210862</v>
+      </c>
+      <c r="E150">
         <v>5</v>
       </c>
-      <c r="D150">
-        <v>210861</v>
-      </c>
-      <c r="E150">
-        <v>4.98</v>
-      </c>
       <c r="F150">
-        <v>5</v>
+        <v>5.02</v>
       </c>
       <c r="G150">
-        <v>39.43</v>
+        <v>39.45</v>
       </c>
       <c r="H150">
-        <v>2.51</v>
+        <v>2.53</v>
       </c>
       <c r="I150">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="J150">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="K150">
         <v>2.47</v>
@@ -7916,45 +7916,45 @@
         <v>69.86</v>
       </c>
       <c r="M150">
-        <v>69.84</v>
+        <v>69.87</v>
       </c>
       <c r="N150">
-        <v>352.06</v>
+        <v>352.04</v>
       </c>
       <c r="O150">
-        <v>0.272</v>
+        <v>0.222</v>
       </c>
       <c r="P150">
-        <v>0.176</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="151" spans="1:16">
       <c r="A151" s="1">
-        <v>31363</v>
+        <v>31575</v>
       </c>
       <c r="B151" t="s">
         <v>17</v>
       </c>
       <c r="C151">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D151">
-        <v>210862</v>
+        <v>210863</v>
       </c>
       <c r="E151">
-        <v>5</v>
+        <v>5.02</v>
       </c>
       <c r="F151">
-        <v>5.02</v>
+        <v>4.99</v>
       </c>
       <c r="G151">
-        <v>39.45</v>
+        <v>39.44</v>
       </c>
       <c r="H151">
+        <v>2.52</v>
+      </c>
+      <c r="I151">
         <v>2.53</v>
-      </c>
-      <c r="I151">
-        <v>2.51</v>
       </c>
       <c r="J151">
         <v>2.46</v>
@@ -7963,86 +7963,86 @@
         <v>2.47</v>
       </c>
       <c r="L151">
+        <v>69.84999999999999</v>
+      </c>
+      <c r="M151">
         <v>69.86</v>
       </c>
-      <c r="M151">
-        <v>69.87</v>
-      </c>
       <c r="N151">
-        <v>352.04</v>
+        <v>352</v>
       </c>
       <c r="O151">
-        <v>0.222</v>
+        <v>0.098</v>
       </c>
       <c r="P151">
-        <v>0.196</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="152" spans="1:16">
       <c r="A152" s="1">
-        <v>31575</v>
+        <v>31787</v>
       </c>
       <c r="B152" t="s">
         <v>17</v>
       </c>
       <c r="C152">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D152">
-        <v>210863</v>
+        <v>210864</v>
       </c>
       <c r="E152">
-        <v>5.02</v>
+        <v>5</v>
       </c>
       <c r="F152">
-        <v>4.99</v>
+        <v>4.98</v>
       </c>
       <c r="G152">
-        <v>39.44</v>
+        <v>39.45</v>
       </c>
       <c r="H152">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="I152">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="J152">
-        <v>2.46</v>
+        <v>2.43</v>
       </c>
       <c r="K152">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="L152">
         <v>69.84999999999999</v>
       </c>
       <c r="M152">
-        <v>69.86</v>
+        <v>69.84</v>
       </c>
       <c r="N152">
-        <v>352</v>
+        <v>351.98</v>
       </c>
       <c r="O152">
-        <v>0.098</v>
+        <v>0.602</v>
       </c>
       <c r="P152">
-        <v>0.109</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="153" spans="1:16">
       <c r="A153" s="1">
-        <v>31787</v>
+        <v>31999</v>
       </c>
       <c r="B153" t="s">
         <v>17</v>
       </c>
       <c r="C153">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153">
-        <v>210864</v>
+        <v>210865</v>
       </c>
       <c r="E153">
-        <v>5</v>
+        <v>5.02</v>
       </c>
       <c r="F153">
         <v>4.98</v>
@@ -8051,98 +8051,98 @@
         <v>39.45</v>
       </c>
       <c r="H153">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="I153">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="J153">
-        <v>2.43</v>
+        <v>2.48</v>
       </c>
       <c r="K153">
-        <v>2.45</v>
+        <v>2.46</v>
       </c>
       <c r="L153">
-        <v>69.84999999999999</v>
+        <v>69.84</v>
       </c>
       <c r="M153">
-        <v>69.84</v>
+        <v>69.87</v>
       </c>
       <c r="N153">
-        <v>351.98</v>
+        <v>351.99</v>
       </c>
       <c r="O153">
-        <v>0.602</v>
+        <v>0.595</v>
       </c>
       <c r="P153">
-        <v>0.407</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="154" spans="1:16">
       <c r="A154" s="1">
-        <v>31999</v>
+        <v>32211</v>
       </c>
       <c r="B154" t="s">
         <v>17</v>
       </c>
       <c r="C154">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154">
-        <v>210865</v>
+        <v>210866</v>
       </c>
       <c r="E154">
-        <v>5.02</v>
+        <v>5</v>
       </c>
       <c r="F154">
-        <v>4.98</v>
+        <v>4.99</v>
       </c>
       <c r="G154">
-        <v>39.45</v>
+        <v>39.43</v>
       </c>
       <c r="H154">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="I154">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="J154">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="K154">
-        <v>2.46</v>
+        <v>2.47</v>
       </c>
       <c r="L154">
-        <v>69.84</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="M154">
-        <v>69.87</v>
+        <v>69.88</v>
       </c>
       <c r="N154">
-        <v>351.99</v>
+        <v>352.06</v>
       </c>
       <c r="O154">
-        <v>0.595</v>
+        <v>0.292</v>
       </c>
       <c r="P154">
-        <v>0.448</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="155" spans="1:16">
       <c r="A155" s="1">
-        <v>32211</v>
+        <v>32423</v>
       </c>
       <c r="B155" t="s">
         <v>17</v>
       </c>
       <c r="C155">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D155">
-        <v>210866</v>
+        <v>210867</v>
       </c>
       <c r="E155">
-        <v>5</v>
+        <v>5.01</v>
       </c>
       <c r="F155">
         <v>4.99</v>
@@ -8154,248 +8154,248 @@
         <v>2.51</v>
       </c>
       <c r="I155">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J155">
         <v>2.46</v>
       </c>
       <c r="K155">
-        <v>2.47</v>
+        <v>2.48</v>
       </c>
       <c r="L155">
-        <v>69.84999999999999</v>
+        <v>69.88</v>
       </c>
       <c r="M155">
-        <v>69.88</v>
+        <v>69.84</v>
       </c>
       <c r="N155">
-        <v>352.06</v>
+        <v>352.02</v>
       </c>
       <c r="O155">
-        <v>0.292</v>
+        <v>0.33</v>
       </c>
       <c r="P155">
-        <v>0.242</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="156" spans="1:16">
       <c r="A156" s="1">
-        <v>32423</v>
+        <v>32635</v>
       </c>
       <c r="B156" t="s">
         <v>17</v>
       </c>
       <c r="C156">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D156">
-        <v>210867</v>
+        <v>210868</v>
       </c>
       <c r="E156">
         <v>5.01</v>
       </c>
       <c r="F156">
-        <v>4.99</v>
+        <v>5</v>
       </c>
       <c r="G156">
-        <v>39.43</v>
+        <v>39.44</v>
       </c>
       <c r="H156">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="I156">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="J156">
-        <v>2.46</v>
+        <v>2.43</v>
       </c>
       <c r="K156">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="L156">
-        <v>69.88</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="M156">
-        <v>69.84</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="N156">
-        <v>352.02</v>
+        <v>351.98</v>
       </c>
       <c r="O156">
-        <v>0.33</v>
+        <v>0.347</v>
       </c>
       <c r="P156">
-        <v>0.2</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="157" spans="1:16">
       <c r="A157" s="1">
-        <v>32635</v>
+        <v>32847</v>
       </c>
       <c r="B157" t="s">
         <v>17</v>
       </c>
       <c r="C157">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D157">
-        <v>210868</v>
+        <v>210869</v>
       </c>
       <c r="E157">
         <v>5.01</v>
       </c>
       <c r="F157">
-        <v>5</v>
+        <v>5.02</v>
       </c>
       <c r="G157">
-        <v>39.44</v>
+        <v>39.43</v>
       </c>
       <c r="H157">
         <v>2.52</v>
       </c>
       <c r="I157">
-        <v>2.51</v>
+        <v>2.53</v>
       </c>
       <c r="J157">
-        <v>2.43</v>
+        <v>2.44</v>
       </c>
       <c r="K157">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="L157">
-        <v>69.84999999999999</v>
+        <v>69.87</v>
       </c>
       <c r="M157">
-        <v>69.84999999999999</v>
+        <v>69.84</v>
       </c>
       <c r="N157">
-        <v>351.98</v>
+        <v>351.97</v>
       </c>
       <c r="O157">
-        <v>0.347</v>
+        <v>0.293</v>
       </c>
       <c r="P157">
-        <v>0.241</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="158" spans="1:16">
       <c r="A158" s="1">
-        <v>32847</v>
+        <v>33059</v>
       </c>
       <c r="B158" t="s">
         <v>17</v>
       </c>
       <c r="C158">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D158">
-        <v>210869</v>
+        <v>210870</v>
       </c>
       <c r="E158">
         <v>5.01</v>
       </c>
       <c r="F158">
-        <v>5.02</v>
+        <v>4.98</v>
       </c>
       <c r="G158">
-        <v>39.43</v>
+        <v>39.44</v>
       </c>
       <c r="H158">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I158">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="J158">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="K158">
         <v>2.47</v>
       </c>
       <c r="L158">
+        <v>69.84</v>
+      </c>
+      <c r="M158">
         <v>69.87</v>
-      </c>
-      <c r="M158">
-        <v>69.84</v>
       </c>
       <c r="N158">
         <v>351.97</v>
       </c>
       <c r="O158">
-        <v>0.293</v>
+        <v>0.343</v>
       </c>
       <c r="P158">
-        <v>0.213</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="159" spans="1:16">
       <c r="A159" s="1">
-        <v>33059</v>
+        <v>33271</v>
       </c>
       <c r="B159" t="s">
         <v>17</v>
       </c>
       <c r="C159">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D159">
-        <v>210870</v>
+        <v>210871</v>
       </c>
       <c r="E159">
-        <v>5.01</v>
+        <v>4.99</v>
       </c>
       <c r="F159">
-        <v>4.98</v>
+        <v>5</v>
       </c>
       <c r="G159">
         <v>39.44</v>
       </c>
       <c r="H159">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="I159">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="J159">
-        <v>2.46</v>
+        <v>2.45</v>
       </c>
       <c r="K159">
-        <v>2.47</v>
+        <v>2.46</v>
       </c>
       <c r="L159">
         <v>69.84</v>
       </c>
       <c r="M159">
-        <v>69.87</v>
+        <v>69.88</v>
       </c>
       <c r="N159">
-        <v>351.97</v>
+        <v>352.01</v>
       </c>
       <c r="O159">
-        <v>0.343</v>
+        <v>0.38</v>
       </c>
       <c r="P159">
-        <v>0.315</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="160" spans="1:16">
       <c r="A160" s="1">
-        <v>33271</v>
+        <v>33482</v>
       </c>
       <c r="B160" t="s">
         <v>17</v>
       </c>
       <c r="C160">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D160">
-        <v>210871</v>
+        <v>210841</v>
       </c>
       <c r="E160">
+        <v>5</v>
+      </c>
+      <c r="F160">
         <v>4.99</v>
-      </c>
-      <c r="F160">
-        <v>5</v>
       </c>
       <c r="G160">
         <v>39.44</v>
@@ -8404,160 +8404,160 @@
         <v>2.51</v>
       </c>
       <c r="I160">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="J160">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="K160">
         <v>2.46</v>
       </c>
       <c r="L160">
-        <v>69.84</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="M160">
-        <v>69.88</v>
+        <v>69.87</v>
       </c>
       <c r="N160">
-        <v>352.01</v>
+        <v>351.98</v>
       </c>
       <c r="O160">
-        <v>0.38</v>
+        <v>0.141</v>
       </c>
       <c r="P160">
-        <v>0.244</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="161" spans="1:16">
       <c r="A161" s="1">
-        <v>33482</v>
+        <v>33694</v>
       </c>
       <c r="B161" t="s">
         <v>17</v>
       </c>
       <c r="C161">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D161">
-        <v>210841</v>
+        <v>210842</v>
       </c>
       <c r="E161">
-        <v>5</v>
+        <v>5.03</v>
       </c>
       <c r="F161">
-        <v>4.99</v>
+        <v>5.02</v>
       </c>
       <c r="G161">
         <v>39.44</v>
       </c>
       <c r="H161">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="I161">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="J161">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="K161">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="L161">
         <v>69.84999999999999</v>
       </c>
       <c r="M161">
-        <v>69.87</v>
+        <v>69.84</v>
       </c>
       <c r="N161">
-        <v>351.98</v>
+        <v>351.96</v>
       </c>
       <c r="O161">
-        <v>0.141</v>
+        <v>0.129</v>
       </c>
       <c r="P161">
-        <v>0.192</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="162" spans="1:16">
       <c r="A162" s="1">
-        <v>33694</v>
+        <v>33906</v>
       </c>
       <c r="B162" t="s">
         <v>17</v>
       </c>
       <c r="C162">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D162">
-        <v>210842</v>
+        <v>210843</v>
       </c>
       <c r="E162">
-        <v>5.03</v>
+        <v>5.01</v>
       </c>
       <c r="F162">
-        <v>5.02</v>
+        <v>4.98</v>
       </c>
       <c r="G162">
-        <v>39.44</v>
+        <v>39.43</v>
       </c>
       <c r="H162">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="I162">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="J162">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="K162">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="L162">
-        <v>69.84999999999999</v>
+        <v>69.87</v>
       </c>
       <c r="M162">
         <v>69.84</v>
       </c>
       <c r="N162">
-        <v>351.96</v>
+        <v>352.04</v>
       </c>
       <c r="O162">
-        <v>0.129</v>
+        <v>0.496</v>
       </c>
       <c r="P162">
-        <v>0.119</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="163" spans="1:16">
       <c r="A163" s="1">
-        <v>33906</v>
+        <v>34118</v>
       </c>
       <c r="B163" t="s">
         <v>17</v>
       </c>
       <c r="C163">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D163">
-        <v>210843</v>
+        <v>210844</v>
       </c>
       <c r="E163">
         <v>5.01</v>
       </c>
       <c r="F163">
-        <v>4.98</v>
+        <v>5.01</v>
       </c>
       <c r="G163">
-        <v>39.43</v>
+        <v>39.45</v>
       </c>
       <c r="H163">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="I163">
         <v>2.52</v>
       </c>
       <c r="J163">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="K163">
         <v>2.46</v>
@@ -8569,36 +8569,36 @@
         <v>69.84</v>
       </c>
       <c r="N163">
-        <v>352.04</v>
+        <v>352.06</v>
       </c>
       <c r="O163">
-        <v>0.496</v>
+        <v>0.235</v>
       </c>
       <c r="P163">
-        <v>0.318</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="164" spans="1:16">
       <c r="A164" s="1">
-        <v>34118</v>
+        <v>34330</v>
       </c>
       <c r="B164" t="s">
         <v>17</v>
       </c>
       <c r="C164">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D164">
-        <v>210844</v>
+        <v>210845</v>
       </c>
       <c r="E164">
-        <v>5.01</v>
+        <v>5.02</v>
       </c>
       <c r="F164">
         <v>5.01</v>
       </c>
       <c r="G164">
-        <v>39.45</v>
+        <v>39.43</v>
       </c>
       <c r="H164">
         <v>2.5</v>
@@ -8607,274 +8607,224 @@
         <v>2.52</v>
       </c>
       <c r="J164">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="K164">
-        <v>2.46</v>
+        <v>2.45</v>
       </c>
       <c r="L164">
-        <v>69.87</v>
+        <v>69.85899999999999</v>
       </c>
       <c r="M164">
-        <v>69.84</v>
+        <v>69.86</v>
       </c>
       <c r="N164">
-        <v>352.06</v>
+        <v>351.99</v>
       </c>
       <c r="O164">
-        <v>0.235</v>
+        <v>0.055</v>
       </c>
       <c r="P164">
-        <v>0.165</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="165" spans="1:16">
       <c r="A165" s="1">
-        <v>34330</v>
+        <v>34542</v>
       </c>
       <c r="B165" t="s">
         <v>17</v>
       </c>
       <c r="C165">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D165">
-        <v>210845</v>
+        <v>210846</v>
       </c>
       <c r="E165">
-        <v>5.02</v>
+        <v>4.99</v>
       </c>
       <c r="F165">
         <v>5.01</v>
       </c>
       <c r="G165">
-        <v>39.43</v>
+        <v>39.45</v>
       </c>
       <c r="H165">
+        <v>2.51</v>
+      </c>
+      <c r="I165">
         <v>2.5</v>
       </c>
-      <c r="I165">
-        <v>2.52</v>
-      </c>
       <c r="J165">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="K165">
-        <v>2.45</v>
+        <v>2.46</v>
       </c>
       <c r="L165">
-        <v>69.85899999999999</v>
+        <v>69.84999999999999</v>
       </c>
       <c r="M165">
-        <v>69.86</v>
+        <v>69.87</v>
       </c>
       <c r="N165">
-        <v>351.99</v>
+        <v>351.98</v>
       </c>
       <c r="O165">
-        <v>0.055</v>
+        <v>0.386</v>
       </c>
       <c r="P165">
-        <v>0.06</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="166" spans="1:16">
       <c r="A166" s="1">
-        <v>34542</v>
+        <v>34754</v>
       </c>
       <c r="B166" t="s">
         <v>17</v>
       </c>
       <c r="C166">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D166">
-        <v>210846</v>
+        <v>210847</v>
       </c>
       <c r="E166">
         <v>4.99</v>
       </c>
       <c r="F166">
-        <v>5.01</v>
+        <v>5</v>
       </c>
       <c r="G166">
         <v>39.45</v>
       </c>
       <c r="H166">
-        <v>2.51</v>
+        <v>2.53</v>
       </c>
       <c r="I166">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="J166">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="K166">
-        <v>2.46</v>
+        <v>2.45</v>
       </c>
       <c r="L166">
-        <v>69.84999999999999</v>
+        <v>69.86</v>
       </c>
       <c r="M166">
         <v>69.87</v>
       </c>
       <c r="N166">
-        <v>351.98</v>
+        <v>352.06</v>
       </c>
       <c r="O166">
-        <v>0.386</v>
+        <v>0.112</v>
       </c>
       <c r="P166">
-        <v>0.295</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="167" spans="1:16">
       <c r="A167" s="1">
-        <v>34754</v>
+        <v>34966</v>
       </c>
       <c r="B167" t="s">
         <v>17</v>
       </c>
       <c r="C167">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D167">
-        <v>210847</v>
+        <v>210848</v>
       </c>
       <c r="E167">
-        <v>4.99</v>
+        <v>5.01</v>
       </c>
       <c r="F167">
-        <v>5</v>
+        <v>5.01</v>
       </c>
       <c r="G167">
-        <v>39.45</v>
+        <v>39.43</v>
       </c>
       <c r="H167">
+        <v>2.52</v>
+      </c>
+      <c r="I167">
         <v>2.53</v>
       </c>
-      <c r="I167">
-        <v>2.51</v>
-      </c>
       <c r="J167">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="K167">
-        <v>2.45</v>
+        <v>2.46</v>
       </c>
       <c r="L167">
         <v>69.86</v>
       </c>
       <c r="M167">
-        <v>69.87</v>
+        <v>69.84</v>
       </c>
       <c r="N167">
-        <v>352.06</v>
+        <v>351.97</v>
       </c>
       <c r="O167">
-        <v>0.112</v>
+        <v>0.266</v>
       </c>
       <c r="P167">
-        <v>0.111</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="168" spans="1:16">
       <c r="A168" s="1">
-        <v>34966</v>
+        <v>35178</v>
       </c>
       <c r="B168" t="s">
         <v>17</v>
       </c>
       <c r="C168">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D168">
-        <v>210848</v>
+        <v>210849</v>
       </c>
       <c r="E168">
         <v>5.01</v>
       </c>
       <c r="F168">
-        <v>5.01</v>
+        <v>4.99</v>
       </c>
       <c r="G168">
-        <v>39.43</v>
+        <v>39.45</v>
       </c>
       <c r="H168">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I168">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="J168">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="K168">
-        <v>2.46</v>
+        <v>2.47</v>
       </c>
       <c r="L168">
-        <v>69.86</v>
+        <v>69.87</v>
       </c>
       <c r="M168">
         <v>69.84</v>
       </c>
       <c r="N168">
-        <v>351.97</v>
+        <v>351.98</v>
       </c>
       <c r="O168">
-        <v>0.266</v>
+        <v>0.431</v>
       </c>
       <c r="P168">
-        <v>0.207</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16">
-      <c r="A169" s="1">
-        <v>35178</v>
-      </c>
-      <c r="B169" t="s">
-        <v>17</v>
-      </c>
-      <c r="C169">
-        <v>24</v>
-      </c>
-      <c r="D169">
-        <v>210849</v>
-      </c>
-      <c r="E169">
-        <v>5.01</v>
-      </c>
-      <c r="F169">
-        <v>4.99</v>
-      </c>
-      <c r="G169">
-        <v>39.45</v>
-      </c>
-      <c r="H169">
-        <v>2.5</v>
-      </c>
-      <c r="I169">
-        <v>2.52</v>
-      </c>
-      <c r="J169">
-        <v>2.46</v>
-      </c>
-      <c r="K169">
-        <v>2.47</v>
-      </c>
-      <c r="L169">
-        <v>69.87</v>
-      </c>
-      <c r="M169">
-        <v>69.84</v>
-      </c>
-      <c r="N169">
-        <v>351.98</v>
-      </c>
-      <c r="O169">
-        <v>0.431</v>
-      </c>
-      <c r="P169">
         <v>0.324</v>
       </c>
     </row>
